--- a/profiles/HND/results/HND_ind_summary.xlsx
+++ b/profiles/HND/results/HND_ind_summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t xml:space="preserve">Group</t>
   </si>
@@ -53,9 +53,6 @@
     <t xml:space="preserve">2010-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">Geographic neighbors</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t xml:space="preserve">2011-2020</t>
   </si>
   <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Food exports (% of merchandise exports)</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t xml:space="preserve">2003-2012</t>
   </si>
   <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
     <t xml:space="preserve">Urban population growth (annual %)</t>
   </si>
   <si>
@@ -116,9 +107,6 @@
     <t xml:space="preserve">2009-2018</t>
   </si>
   <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">Food production index (2014-2016 = 100)</t>
   </si>
   <si>
@@ -134,9 +122,6 @@
     <t xml:space="preserve">2008-2017</t>
   </si>
   <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
     <t xml:space="preserve">Food, beverages and tabaco value added $, per capita</t>
   </si>
   <si>
@@ -167,9 +152,6 @@
     <t xml:space="preserve">2012-2021</t>
   </si>
   <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">Retail value of packaged food sales per capita USD</t>
   </si>
   <si>
@@ -248,9 +230,6 @@
     <t xml:space="preserve">2007-2016</t>
   </si>
   <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prevalence of undernourishment (percent) (3-year average)</t>
   </si>
   <si>
@@ -272,9 +251,6 @@
     <t xml:space="preserve">2006-2015</t>
   </si>
   <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prevalence of obesity, female/male (% of female population ages 18+)</t>
   </si>
   <si>
@@ -285,6 +261,9 @@
   </si>
   <si>
     <t xml:space="preserve">Indicator30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-2018</t>
   </si>
 </sst>
 </file>
@@ -656,10 +635,10 @@
         <v>65.4</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>13.8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -670,13 +649,13 @@
       <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
+      <c r="I2" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="n">
         <v>55.9</v>
@@ -685,10 +664,10 @@
         <v>75.7</v>
       </c>
       <c r="D3" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -699,13 +678,13 @@
       <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
-        <v>13</v>
+      <c r="I3" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
         <v>37.4</v>
@@ -714,10 +693,10 @@
         <v>54</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="E4" t="n">
-        <v>9.1</v>
+        <v>8.5</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -728,13 +707,13 @@
       <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
-        <v>13</v>
+      <c r="I4" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
         <v>56.9</v>
@@ -743,10 +722,10 @@
         <v>61.3</v>
       </c>
       <c r="D5" t="n">
-        <v>72838</v>
+        <v>57629.8</v>
       </c>
       <c r="E5" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -757,8 +736,8 @@
       <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
-        <v>13</v>
+      <c r="I5" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="6">
@@ -772,27 +751,27 @@
         <v>1.3</v>
       </c>
       <c r="D6" t="n">
-        <v>30.9</v>
+        <v>41</v>
       </c>
       <c r="E6" t="n">
-        <v>5.2</v>
+        <v>12.2</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
+      <c r="I6" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>0.6</v>
@@ -801,27 +780,27 @@
         <v>1.6</v>
       </c>
       <c r="D7" t="n">
-        <v>13.7</v>
+        <v>17.9</v>
       </c>
       <c r="E7" t="n">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
+      <c r="I7" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
         <v>0.8</v>
@@ -830,27 +809,27 @@
         <v>1.9</v>
       </c>
       <c r="D8" t="n">
-        <v>11.9</v>
+        <v>14.2</v>
       </c>
       <c r="E8" t="n">
-        <v>11.9</v>
+        <v>14.2</v>
       </c>
       <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
+      <c r="I8" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>0.8</v>
@@ -859,22 +838,22 @@
         <v>1.5</v>
       </c>
       <c r="D9" t="n">
-        <v>13.5</v>
+        <v>16.2</v>
       </c>
       <c r="E9" t="n">
-        <v>4.6</v>
+        <v>6.9</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
+      <c r="I9" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="10">
@@ -888,27 +867,27 @@
         <v>21.6</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="E10" t="n">
         <v>-2.9</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" t="s">
-        <v>13</v>
+      <c r="I10" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
         <v>50.3</v>
@@ -917,27 +896,27 @@
         <v>41.1</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="E11" t="n">
-        <v>-3</v>
+        <v>-2.1</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
       </c>
-      <c r="I11" t="s">
-        <v>13</v>
+      <c r="I11" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="n">
         <v>54.1</v>
@@ -946,27 +925,27 @@
         <v>71.1</v>
       </c>
       <c r="D12" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="E12" t="n">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
-      <c r="I12" t="s">
-        <v>13</v>
+      <c r="I12" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n">
         <v>24.6</v>
@@ -975,22 +954,22 @@
         <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>591.4</v>
+        <v>792.7</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>783.6</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" t="s">
-        <v>13</v>
+      <c r="I13" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="14">
@@ -1004,27 +983,27 @@
         <v>0.7</v>
       </c>
       <c r="D14" t="n">
-        <v>59.6</v>
+        <v>120.6</v>
       </c>
       <c r="E14" t="n">
-        <v>33</v>
+        <v>71.7</v>
       </c>
       <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
         <v>23</v>
       </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" t="s">
-        <v>26</v>
+      <c r="I14" t="n">
+        <v>2012</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>5.8</v>
@@ -1033,27 +1012,27 @@
         <v>2.3</v>
       </c>
       <c r="D15" t="n">
-        <v>1532.9</v>
+        <v>1780.5</v>
       </c>
       <c r="E15" t="n">
-        <v>-23.9</v>
+        <v>-9.4</v>
       </c>
       <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
         <v>23</v>
       </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" t="s">
-        <v>26</v>
+      <c r="I15" t="n">
+        <v>2012</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>14.7</v>
@@ -1062,27 +1041,27 @@
         <v>1.7</v>
       </c>
       <c r="D16" t="n">
-        <v>18.8</v>
+        <v>17.1</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.3</v>
+        <v>-26</v>
       </c>
       <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" t="s">
-        <v>26</v>
+      <c r="I16" t="n">
+        <v>2012</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>7.1</v>
@@ -1091,22 +1070,22 @@
         <v>2.7</v>
       </c>
       <c r="D17" t="n">
-        <v>330.9</v>
+        <v>170.1</v>
       </c>
       <c r="E17" t="n">
-        <v>78.4</v>
+        <v>7.8</v>
       </c>
       <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
         <v>23</v>
       </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" t="s">
-        <v>26</v>
+      <c r="I17" t="n">
+        <v>2012</v>
       </c>
     </row>
     <row r="18">
@@ -1120,27 +1099,27 @@
         <v>0.9</v>
       </c>
       <c r="D18" t="n">
-        <v>11.7</v>
+        <v>13.2</v>
       </c>
       <c r="E18" t="n">
-        <v>-8.3</v>
+        <v>-1.9</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" t="n">
         <v>1.1</v>
@@ -1149,27 +1128,27 @@
         <v>0.7</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.9</v>
+        <v>3.1</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="n">
         <v>2.3</v>
@@ -1178,27 +1157,27 @@
         <v>1.8</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="n">
         <v>2.1</v>
@@ -1207,22 +1186,22 @@
         <v>1.9</v>
       </c>
       <c r="D21" t="n">
-        <v>-28</v>
+        <v>-0.7</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.9</v>
+        <v>-0.5</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="22">
@@ -1236,27 +1215,27 @@
         <v>-1.9</v>
       </c>
       <c r="D22" t="n">
-        <v>-37.1</v>
+        <v>-36.5</v>
       </c>
       <c r="E22" t="n">
-        <v>-12.3</v>
+        <v>-10.2</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" t="n">
         <v>3.8</v>
@@ -1265,27 +1244,27 @@
         <v>-9.2</v>
       </c>
       <c r="D23" t="n">
-        <v>83.9</v>
+        <v>89.3</v>
       </c>
       <c r="E23" t="n">
-        <v>-30</v>
+        <v>-34</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" t="n">
         <v>1.8</v>
@@ -1294,27 +1273,27 @@
         <v>-10.4</v>
       </c>
       <c r="D24" t="n">
-        <v>-112.7</v>
+        <v>-126.4</v>
       </c>
       <c r="E24" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" t="n">
         <v>2.2</v>
@@ -1323,22 +1302,22 @@
         <v>-5.8</v>
       </c>
       <c r="D25" t="n">
-        <v>-40.6</v>
+        <v>-41.1</v>
       </c>
       <c r="E25" t="n">
-        <v>-23.3</v>
+        <v>-17.5</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="26">
@@ -1358,21 +1337,21 @@
         <v>-1.4</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" t="n">
         <v>0.5</v>
@@ -1384,24 +1363,24 @@
         <v>-1.3</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" t="n">
         <v>0.4</v>
@@ -1416,21 +1395,21 @@
         <v>-1.4</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="n">
         <v>1.2</v>
@@ -1439,22 +1418,22 @@
         <v>1.1</v>
       </c>
       <c r="D29" t="n">
-        <v>21863.4</v>
+        <v>24292.7</v>
       </c>
       <c r="E29" t="n">
         <v>-1.1</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="30">
@@ -1468,27 +1447,27 @@
         <v>106.8</v>
       </c>
       <c r="D30" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="E30" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" t="n">
         <v>89</v>
@@ -1500,24 +1479,24 @@
         <v>1.8</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="n">
         <v>100.6</v>
@@ -1526,27 +1505,27 @@
         <v>105.6</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E32" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="n">
         <v>90.3</v>
@@ -1558,19 +1537,19 @@
         <v>1.6</v>
       </c>
       <c r="E33" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="34">
@@ -1584,27 +1563,27 @@
         <v>19</v>
       </c>
       <c r="D34" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E34" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
         <v>51.6</v>
@@ -1613,27 +1592,27 @@
         <v>51.2</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.8</v>
+        <v>-1.1</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
         <v>50.6</v>
@@ -1648,21 +1627,21 @@
         <v>0.7</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" t="n">
         <v>32.1</v>
@@ -1671,22 +1650,22 @@
         <v>25.5</v>
       </c>
       <c r="D37" t="n">
-        <v>4819.3</v>
+        <v>5326.9</v>
       </c>
       <c r="E37" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H37" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="38">
@@ -1700,27 +1679,27 @@
         <v>103.8</v>
       </c>
       <c r="D38" t="n">
-        <v>14112940.9</v>
+        <v>15681045.5</v>
       </c>
       <c r="E38" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" t="n">
         <v>310.8</v>
@@ -1729,27 +1708,27 @@
         <v>186.9</v>
       </c>
       <c r="D39" t="n">
-        <v>287773879.2</v>
+        <v>319748754.7</v>
       </c>
       <c r="E39" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" t="n">
         <v>1273.6</v>
@@ -1758,27 +1737,27 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-14.3</v>
+        <v>-15.9</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>33</v>
-      </c>
-      <c r="I40" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" t="n">
         <v>279.7</v>
@@ -1787,22 +1766,22 @@
         <v>342.3</v>
       </c>
       <c r="D41" t="n">
-        <v>336200395.6</v>
+        <v>373364434.7</v>
       </c>
       <c r="E41" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H41" t="s">
-        <v>33</v>
-      </c>
-      <c r="I41" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="42">
@@ -1822,21 +1801,21 @@
         <v>10.4</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43" t="n">
         <v>8.9</v>
@@ -1851,21 +1830,21 @@
         <v>3.1</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H43" t="s">
-        <v>45</v>
-      </c>
-      <c r="I43" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" t="n">
         <v>5.9</v>
@@ -1880,21 +1859,21 @@
         <v>0.5</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
-      </c>
-      <c r="I44" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" t="n">
         <v>26.4</v>
@@ -1909,16 +1888,16 @@
         <v>4.2</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H45" t="s">
-        <v>45</v>
-      </c>
-      <c r="I45" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="46">
@@ -1935,24 +1914,24 @@
         <v>0.9</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s">
         <v>12</v>
       </c>
-      <c r="I46" t="s">
-        <v>13</v>
+      <c r="I46" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47" t="n">
         <v>115.3</v>
@@ -1967,21 +1946,21 @@
         <v>0.4</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H47" t="s">
         <v>12</v>
       </c>
-      <c r="I47" t="s">
-        <v>13</v>
+      <c r="I47" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" t="n">
         <v>114</v>
@@ -1990,27 +1969,27 @@
         <v>117</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H48" t="s">
         <v>12</v>
       </c>
-      <c r="I48" t="s">
-        <v>13</v>
+      <c r="I48" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" t="n">
         <v>118.3</v>
@@ -2019,22 +1998,22 @@
         <v>121.2</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E49" t="n">
         <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H49" t="s">
         <v>12</v>
       </c>
-      <c r="I49" t="s">
-        <v>13</v>
+      <c r="I49" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="50">
@@ -2051,24 +2030,24 @@
         <v>4.8</v>
       </c>
       <c r="E50" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I50" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51" t="n">
         <v>88.8</v>
@@ -2077,27 +2056,27 @@
         <v>116</v>
       </c>
       <c r="D51" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E51" t="n">
         <v>3.1</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H51" t="s">
-        <v>50</v>
-      </c>
-      <c r="I51" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52" t="n">
         <v>86.4</v>
@@ -2112,21 +2091,21 @@
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H52" t="s">
-        <v>50</v>
-      </c>
-      <c r="I52" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53" t="n">
         <v>89.4</v>
@@ -2135,22 +2114,22 @@
         <v>162.8</v>
       </c>
       <c r="D53" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="E53" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H53" t="s">
-        <v>50</v>
-      </c>
-      <c r="I53" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="54">
@@ -2170,21 +2149,21 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>45</v>
-      </c>
-      <c r="I54" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55" t="n">
         <v>344.8</v>
@@ -2199,21 +2178,21 @@
         <v>2.1</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G55" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>45</v>
-      </c>
-      <c r="I55" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56" t="n">
         <v>124.9</v>
@@ -2228,21 +2207,21 @@
         <v>4.6</v>
       </c>
       <c r="F56" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>45</v>
-      </c>
-      <c r="I56" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57" t="n">
         <v>451.2</v>
@@ -2257,16 +2236,16 @@
         <v>4.3</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>45</v>
-      </c>
-      <c r="I57" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="58">
@@ -2283,24 +2262,24 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G58" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59" t="n">
         <v>91.3</v>
@@ -2315,21 +2294,21 @@
         <v>0.4</v>
       </c>
       <c r="F59" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G59" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H59" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60" t="n">
         <v>91.2</v>
@@ -2344,21 +2323,21 @@
         <v>0.5</v>
       </c>
       <c r="F60" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G60" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B61" t="n">
         <v>86.5</v>
@@ -2373,16 +2352,16 @@
         <v>0.5</v>
       </c>
       <c r="F61" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G61" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="62">
@@ -2402,21 +2381,21 @@
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H62" t="s">
-        <v>50</v>
-      </c>
-      <c r="I62" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63" t="n">
         <v>0.8</v>
@@ -2431,21 +2410,21 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s">
-        <v>50</v>
-      </c>
-      <c r="I63" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -2460,21 +2439,21 @@
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s">
-        <v>50</v>
-      </c>
-      <c r="I64" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B65" t="n">
         <v>0.3</v>
@@ -2489,16 +2468,16 @@
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G65" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H65" t="s">
-        <v>50</v>
-      </c>
-      <c r="I65" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="66">
@@ -2518,21 +2497,21 @@
         <v>1.7</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H66" t="s">
-        <v>50</v>
-      </c>
-      <c r="I66" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67" t="n">
         <v>4.6</v>
@@ -2547,21 +2526,21 @@
         <v>-0.2</v>
       </c>
       <c r="F67" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H67" t="s">
-        <v>50</v>
-      </c>
-      <c r="I67" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B68" t="n">
         <v>3.1</v>
@@ -2576,21 +2555,21 @@
         <v>5.7</v>
       </c>
       <c r="F68" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H68" t="s">
-        <v>50</v>
-      </c>
-      <c r="I68" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B69" t="n">
         <v>5.2</v>
@@ -2605,16 +2584,16 @@
         <v>0.2</v>
       </c>
       <c r="F69" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G69" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H69" t="s">
-        <v>50</v>
-      </c>
-      <c r="I69" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="70">
@@ -2634,21 +2613,21 @@
         <v>7.7</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G70" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H70" t="s">
-        <v>45</v>
-      </c>
-      <c r="I70" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71" t="n">
         <v>248.8</v>
@@ -2663,21 +2642,21 @@
         <v>1.6</v>
       </c>
       <c r="F71" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G71" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H71" t="s">
-        <v>45</v>
-      </c>
-      <c r="I71" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72" t="n">
         <v>128.2</v>
@@ -2692,21 +2671,21 @@
         <v>2.5</v>
       </c>
       <c r="F72" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G72" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H72" t="s">
-        <v>45</v>
-      </c>
-      <c r="I72" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B73" t="n">
         <v>285.9</v>
@@ -2721,16 +2700,16 @@
         <v>4.2</v>
       </c>
       <c r="F73" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G73" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H73" t="s">
-        <v>45</v>
-      </c>
-      <c r="I73" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="74">
@@ -2747,24 +2726,24 @@
         <v>-0.6</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="F74" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G74" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H74" t="s">
-        <v>39</v>
-      </c>
-      <c r="I74" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B75" t="n">
         <v>43.5</v>
@@ -2779,21 +2758,21 @@
         <v>0.2</v>
       </c>
       <c r="F75" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G75" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H75" t="s">
-        <v>39</v>
-      </c>
-      <c r="I75" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B76" t="n">
         <v>46</v>
@@ -2802,27 +2781,27 @@
         <v>44</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G76" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H76" t="s">
-        <v>39</v>
-      </c>
-      <c r="I76" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B77" t="n">
         <v>46.5</v>
@@ -2834,19 +2813,19 @@
         <v>0.1</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G77" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H77" t="s">
-        <v>39</v>
-      </c>
-      <c r="I77" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="78">
@@ -2866,21 +2845,21 @@
         <v>1.1</v>
       </c>
       <c r="F78" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G78" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H78" t="s">
-        <v>66</v>
-      </c>
-      <c r="I78" t="s">
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B79" t="n">
         <v>24.2</v>
@@ -2895,21 +2874,21 @@
         <v>1.4</v>
       </c>
       <c r="F79" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G79" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H79" t="s">
-        <v>66</v>
-      </c>
-      <c r="I79" t="s">
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B80" t="n">
         <v>20.7</v>
@@ -2924,21 +2903,21 @@
         <v>1.7</v>
       </c>
       <c r="F80" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G80" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H80" t="s">
-        <v>66</v>
-      </c>
-      <c r="I80" t="s">
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B81" t="n">
         <v>28.1</v>
@@ -2953,16 +2932,16 @@
         <v>0.9</v>
       </c>
       <c r="F81" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G81" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H81" t="s">
-        <v>66</v>
-      </c>
-      <c r="I81" t="s">
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="82">
@@ -2979,24 +2958,24 @@
         <v>-0.6</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="F82" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G82" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H82" t="s">
         <v>12</v>
       </c>
-      <c r="I82" t="s">
-        <v>13</v>
+      <c r="I82" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B83" t="n">
         <v>45.4</v>
@@ -3005,27 +2984,27 @@
         <v>48.7</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F83" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G83" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H83" t="s">
         <v>12</v>
       </c>
-      <c r="I83" t="s">
-        <v>13</v>
+      <c r="I83" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B84" t="n">
         <v>44.5</v>
@@ -3034,27 +3013,27 @@
         <v>52.3</v>
       </c>
       <c r="D84" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F84" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G84" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H84" t="s">
         <v>12</v>
       </c>
-      <c r="I84" t="s">
-        <v>13</v>
+      <c r="I84" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B85" t="n">
         <v>51.1</v>
@@ -3063,22 +3042,22 @@
         <v>52</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E85" t="n">
         <v>0.3</v>
       </c>
       <c r="F85" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G85" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H85" t="s">
         <v>12</v>
       </c>
-      <c r="I85" t="s">
-        <v>13</v>
+      <c r="I85" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="86">
@@ -3098,21 +3077,21 @@
         <v>-1</v>
       </c>
       <c r="F86" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G86" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H86" t="s">
-        <v>19</v>
-      </c>
-      <c r="I86" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B87" t="n">
         <v>40.7</v>
@@ -3121,27 +3100,27 @@
         <v>36.7</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="E87" t="n">
         <v>-1.4</v>
       </c>
       <c r="F87" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G87" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H87" t="s">
-        <v>19</v>
-      </c>
-      <c r="I87" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B88" t="n">
         <v>47.5</v>
@@ -3156,21 +3135,21 @@
         <v>-1.4</v>
       </c>
       <c r="F88" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G88" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H88" t="s">
-        <v>19</v>
-      </c>
-      <c r="I88" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89" t="n">
         <v>41.3</v>
@@ -3182,19 +3161,19 @@
         <v>-1</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="F89" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G89" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H89" t="s">
-        <v>19</v>
-      </c>
-      <c r="I89" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="90">
@@ -3211,24 +3190,24 @@
         <v>0.5</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="F90" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G90" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H90" t="s">
-        <v>33</v>
-      </c>
-      <c r="I90" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B91" t="n">
         <v>1.8</v>
@@ -3237,27 +3216,27 @@
         <v>1.9</v>
       </c>
       <c r="D91" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="E91" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="F91" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G91" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H91" t="s">
-        <v>33</v>
-      </c>
-      <c r="I91" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B92" t="n">
         <v>1.8</v>
@@ -3266,27 +3245,27 @@
         <v>1.9</v>
       </c>
       <c r="D92" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G92" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H92" t="s">
-        <v>33</v>
-      </c>
-      <c r="I92" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93" t="n">
         <v>2.3</v>
@@ -3295,22 +3274,22 @@
         <v>2.3</v>
       </c>
       <c r="D93" t="n">
-        <v>7797.8</v>
+        <v>5295.2</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F93" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G93" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H93" t="s">
-        <v>33</v>
-      </c>
-      <c r="I93" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="94">
@@ -3327,24 +3306,24 @@
         <v>-1.4</v>
       </c>
       <c r="E94" t="n">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="F94" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G94" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H94" t="s">
-        <v>19</v>
-      </c>
-      <c r="I94" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B95" t="n">
         <v>64</v>
@@ -3359,21 +3338,21 @@
         <v>-0.7</v>
       </c>
       <c r="F95" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G95" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H95" t="s">
-        <v>19</v>
-      </c>
-      <c r="I95" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B96" t="n">
         <v>64.9</v>
@@ -3382,27 +3361,27 @@
         <v>58.3</v>
       </c>
       <c r="D96" t="n">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="E96" t="n">
         <v>-0.9</v>
       </c>
       <c r="F96" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G96" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H96" t="s">
-        <v>19</v>
-      </c>
-      <c r="I96" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B97" t="n">
         <v>35.4</v>
@@ -3417,16 +3396,16 @@
         <v>-0.5</v>
       </c>
       <c r="F97" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G97" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H97" t="s">
-        <v>19</v>
-      </c>
-      <c r="I97" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="98">
@@ -3446,21 +3425,21 @@
         <v>5.6</v>
       </c>
       <c r="F98" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G98" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H98" t="s">
-        <v>77</v>
-      </c>
-      <c r="I98" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B99" t="n">
         <v>18.6</v>
@@ -3475,21 +3454,21 @@
         <v>2.7</v>
       </c>
       <c r="F99" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G99" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H99" t="s">
-        <v>77</v>
-      </c>
-      <c r="I99" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B100" t="n">
         <v>16.1</v>
@@ -3504,21 +3483,21 @@
         <v>3.3</v>
       </c>
       <c r="F100" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G100" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H100" t="s">
-        <v>77</v>
-      </c>
-      <c r="I100" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B101" t="n">
         <v>16.1</v>
@@ -3533,16 +3512,16 @@
         <v>3.1</v>
       </c>
       <c r="F101" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G101" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H101" t="s">
-        <v>77</v>
-      </c>
-      <c r="I101" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="102">
@@ -3556,27 +3535,27 @@
         <v>9.7</v>
       </c>
       <c r="D102" t="n">
-        <v>-4.3</v>
+        <v>-4.4</v>
       </c>
       <c r="E102" t="n">
-        <v>-3.9</v>
+        <v>-4.4</v>
       </c>
       <c r="F102" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G102" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H102" t="s">
         <v>12</v>
       </c>
-      <c r="I102" t="s">
-        <v>13</v>
+      <c r="I102" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B103" t="n">
         <v>11.7</v>
@@ -3585,27 +3564,27 @@
         <v>10.2</v>
       </c>
       <c r="D103" t="n">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="E103" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="F103" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G103" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H103" t="s">
         <v>12</v>
       </c>
-      <c r="I103" t="s">
-        <v>13</v>
+      <c r="I103" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B104" t="n">
         <v>15.9</v>
@@ -3614,27 +3593,27 @@
         <v>13.5</v>
       </c>
       <c r="D104" t="n">
-        <v>-2.8</v>
+        <v>-1.6</v>
       </c>
       <c r="E104" t="n">
-        <v>-1.4</v>
+        <v>0.1</v>
       </c>
       <c r="F104" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G104" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H104" t="s">
         <v>12</v>
       </c>
-      <c r="I104" t="s">
-        <v>13</v>
+      <c r="I104" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B105" t="n">
         <v>10.3</v>
@@ -3643,22 +3622,22 @@
         <v>9.6</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="F105" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G105" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H105" t="s">
         <v>12</v>
       </c>
-      <c r="I105" t="s">
-        <v>13</v>
+      <c r="I105" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="106">
@@ -3672,27 +3651,27 @@
         <v>2221.9</v>
       </c>
       <c r="D106" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="E106" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="F106" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G106" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H106" t="s">
         <v>12</v>
       </c>
-      <c r="I106" t="s">
-        <v>13</v>
+      <c r="I106" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B107" t="n">
         <v>5900.2</v>
@@ -3701,27 +3680,27 @@
         <v>5329.3</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="E107" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F107" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G107" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H107" t="s">
         <v>12</v>
       </c>
-      <c r="I107" t="s">
-        <v>13</v>
+      <c r="I107" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B108" t="n">
         <v>1706.3</v>
@@ -3730,27 +3709,27 @@
         <v>2335.6</v>
       </c>
       <c r="D108" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="E108" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="F108" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G108" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H108" t="s">
         <v>12</v>
       </c>
-      <c r="I108" t="s">
-        <v>13</v>
+      <c r="I108" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B109" t="n">
         <v>13846.7</v>
@@ -3759,22 +3738,22 @@
         <v>32129.3</v>
       </c>
       <c r="D109" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="E109" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="F109" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G109" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H109" t="s">
         <v>12</v>
       </c>
-      <c r="I109" t="s">
-        <v>13</v>
+      <c r="I109" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="110">
@@ -3788,27 +3767,27 @@
         <v>59</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E110" t="n">
         <v>0.9</v>
       </c>
       <c r="F110" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G110" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H110" t="s">
-        <v>85</v>
-      </c>
-      <c r="I110" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B111" t="n">
         <v>78</v>
@@ -3817,27 +3796,27 @@
         <v>168.4</v>
       </c>
       <c r="D111" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="E111" t="n">
         <v>1.1</v>
       </c>
       <c r="F111" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G111" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H111" t="s">
-        <v>85</v>
-      </c>
-      <c r="I111" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B112" t="n">
         <v>318.4</v>
@@ -3846,27 +3825,27 @@
         <v>200</v>
       </c>
       <c r="D112" t="n">
-        <v>-3.7</v>
+        <v>-4.6</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.4</v>
+        <v>-3.1</v>
       </c>
       <c r="F112" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G112" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H112" t="s">
-        <v>85</v>
-      </c>
-      <c r="I112" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B113" t="n">
         <v>46</v>
@@ -3875,22 +3854,22 @@
         <v>75.3</v>
       </c>
       <c r="D113" t="n">
-        <v>58.3</v>
+        <v>69</v>
       </c>
       <c r="E113" t="n">
-        <v>38.5</v>
+        <v>39.8</v>
       </c>
       <c r="F113" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G113" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H113" t="s">
-        <v>85</v>
-      </c>
-      <c r="I113" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="114">
@@ -3904,27 +3883,27 @@
         <v>2.3</v>
       </c>
       <c r="D114" t="n">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="E114" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="F114" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G114" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H114" t="s">
-        <v>77</v>
-      </c>
-      <c r="I114" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B115" t="n">
         <v>1.8</v>
@@ -3936,24 +3915,24 @@
         <v>-1.2</v>
       </c>
       <c r="E115" t="n">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="F115" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G115" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H115" t="s">
-        <v>77</v>
-      </c>
-      <c r="I115" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B116" t="n">
         <v>1.9</v>
@@ -3965,24 +3944,24 @@
         <v>-1.2</v>
       </c>
       <c r="E116" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="F116" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G116" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H116" t="s">
-        <v>77</v>
-      </c>
-      <c r="I116" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B117" t="n">
         <v>2.1</v>
@@ -3997,16 +3976,16 @@
         <v>-1.3</v>
       </c>
       <c r="F117" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G117" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H117" t="s">
-        <v>77</v>
-      </c>
-      <c r="I117" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="118">
@@ -4019,28 +3998,28 @@
       <c r="C118" t="n">
         <v>37.2</v>
       </c>
-      <c r="D118" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E118" t="e">
-        <v>#NUM!</v>
+      <c r="D118" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.4</v>
       </c>
       <c r="F118" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G118" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H118" t="s">
-        <v>12</v>
-      </c>
-      <c r="I118" t="s">
-        <v>13</v>
+        <v>83</v>
+      </c>
+      <c r="I118" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B119" t="n">
         <v>46.8</v>
@@ -4049,27 +4028,27 @@
         <v>45.6</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="F119" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G119" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H119" t="s">
-        <v>12</v>
-      </c>
-      <c r="I119" t="s">
-        <v>13</v>
+        <v>83</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B120" t="n">
         <v>53.1</v>
@@ -4078,27 +4057,27 @@
         <v>48.2</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.6</v>
+        <v>-1</v>
       </c>
       <c r="E120" t="n">
         <v>-0.5</v>
       </c>
       <c r="F120" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G120" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H120" t="s">
-        <v>12</v>
-      </c>
-      <c r="I120" t="s">
-        <v>13</v>
+        <v>83</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B121" t="n">
         <v>38.1</v>
@@ -4107,22 +4086,22 @@
         <v>35.9</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="F121" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G121" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H121" t="s">
-        <v>12</v>
-      </c>
-      <c r="I121" t="s">
-        <v>13</v>
+        <v>83</v>
+      </c>
+      <c r="I121" t="n">
+        <v>2018</v>
       </c>
     </row>
   </sheetData>
